--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -2,56 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="735" windowWidth="16350" windowHeight="10890" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-values" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-predicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000_ "/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -77,27 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -460,209 +416,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="10.25" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="8.375" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>CV RMSE</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Test RMSE</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Test R2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>0.2674738655861351</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>0.14072126458486944</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>0.6417646882144473</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>0.20040721390468352</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>0.25383764883224913</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>-0.045469650830495034</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>0.16630446319952605</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>0.14007191992378154</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>0.6077542069030962</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>0.3291568712337353</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>0.33971173662684345</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>-1.1010703587158108</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>0.24797560866516055</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>0.2713080267736588</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>-1.0672966190847077</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>0.2330800987712427</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>0.10624412551203537</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>0.7628461898807507</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>0.2790237557736318</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>0.2654525623944583</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>-0.29123940928531766</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>0.23652308710753417</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>0.18241582072573512</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>0.18154809092707958</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>0.22874574995881747</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>0.3717201140749649</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>-1.069411408463027</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>0.285268471442255</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>0.17190796572568592</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>0.5660173774468942</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -675,10 +437,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1893,7 +1655,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1950,1144 +1712,1350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4625947842453737</t>
+          <t>0.027823053832185154</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0524137132897238</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4879822354271255</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.866189055669875</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5373383161658474</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.1292919157725052</t>
+          <t>0.9910925583988046</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3084732821929919</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9003237925463026</t>
+          <t>0.8977732956585172</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.5204665436361502</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8558025522614301</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9859414580506041</t>
+          <t>0.9055743008095121</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2885801400657613</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4378698761591409</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.159333552424673</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.4001145077226784</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.4607568042466141</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0455279824505723</t>
+          <t>1.0460156822041675</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.034833681102242</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8912890567359983</t>
+          <t>0.9642892661606766</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6884496556528386</t>
+          <t>0.6402476429799735</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.7061927439740234</t>
+          <t>0.36081153481008693</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5703948411967752</t>
+          <t>0.7090876625653042</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6988049633624627</t>
+          <t>1.4157678818363593</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.6469751498491796</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.0053618052198203</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9143499193131941</t>
+          <t>0.9787212902243141</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.17756802385979742</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.2867248853937667</t>
+          <t>0.8108694734176947</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.7122677830427406</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.179992573873256</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9534899626201891</t>
+          <t>1.3072864635364634</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8188912257930281</t>
+          <t>0.6560665448591783</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.182620679146794</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1538215396746399</t>
+          <t>1.6476694595820618</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8805175341082307</t>
+          <t>0.716829725411082</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.1150976886879533</t>
+          <t>0.8567838121808098</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.435434093830196</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.394225548259186</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.046337769575512056</t>
+          <t>0.9658046561741571</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.4242441784687738</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0760534704091</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8667971694850847</t>
+          <t>1.031346795839454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7902540594742362</t>
+          <t>0.7922558671499544</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0603690894153566</t>
+          <t>0.8365817274812315</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.2369411718099208</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9215635429615361</t>
+          <t>0.7169360244224601</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.01318231898596</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.38467076605606526</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.7197043110445662</t>
+          <t>0.6913743664217691</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.2322755878992382</t>
+          <t>0.9175769850941986</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1201389226644807</t>
+          <t>0.008068182699884506</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.098715992266051</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0230809705125523</t>
+          <t>0.6857933332772248</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.2218376775389856</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.2051269030613838</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.2626198455996978</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0446597314770125</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.3018527274976863</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.7269182511885148</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.0369959656158354</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1017498776990777</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.033103877048191</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.803040894743944</t>
+          <t>0.15942116900709313</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.665852584118369</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.4995924583243294</t>
+          <t>1.0295622326314344</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0949448527075631</t>
+          <t>0.8075389710608691</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9629792207836374</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.1149071891644837</t>
+          <t>0.8827098498046659</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.083235690908296</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.3966309575971252</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.446914903969514</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.0632863462044566</t>
+          <t>0.6560665448591783</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4057209886597661</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.7970697710299746</t>
+          <t>1.017257158740172</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.7982249808140001</t>
+          <t>1.0147414285982137</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.1183136221243402</t>
+          <t>0.9959854262980627</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.277928207548192</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.3206607759245585</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.2715148123995164</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.1190694632689429</t>
+          <t>0.9981983172111129</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.6514576857995671</t>
+          <t>0.3598039915428423</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9908407807384165</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.003334031108821</t>
+          <t>0.7922558671499544</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33484900313619903</t>
+          <t>0.7052819956236434</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.236931655889272</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.19806594578883</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0262001592045635</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.015581952587894</t>
+          <t>0.8977732956585172</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.0501368552946602</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.8366223726781001</t>
+          <t>0.7133663136408557</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.4813689409967878</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.3173262717666319</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1107109051047246</t>
+          <t>1.043204318608332</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.3338659486058262</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.536757697618249</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.7362061342980581</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6928686584758081</t>
+          <t>0.6827036740057935</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.7046765988153094</t>
+          <t>0.6987756053130969</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.179468327455644</t>
+          <t>0.9950818028801223</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.5659144597288943</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.425425942608868</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.9941835999344555</t>
+          <t>1.031346795839454</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9802695720165531</t>
+          <t>0.7922558671499544</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2229614141993812</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.4129306079792538</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.0464243539811235</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5124948048228717</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.4860637399862986</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2271425584905025</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.1438222216163325</t>
+          <t>0.8021288139294143</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.5261308109687505</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.0160418295142861</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0496688800018035</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.2025597907324475</t>
+          <t>0.8365817274812315</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8391369258676971</t>
+          <t>0.0029377001772891154</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2387155317535274</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.4468692466529838</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.473556335018728</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1789984112974643</t>
+          <t>0.7944466994331378</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.6423303370721253</t>
+          <t>0.9175769850941986</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.4101046014191638</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.5546448830828647</t>
+          <t>0.6517578748683128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.13086271574673</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.0031202225844282</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.1972933180547454</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.246988808203505</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0456648106465423</t>
+          <t>0.8542796069684542</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.0822368080015394</t>
+          <t>0.8854021774739547</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.0236969906113558</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.3797053164340796</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.472556284222537</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.3060829886305854</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.3607567140999208</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.3371965008948656</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.6308761965186092</t>
+          <t>0.9068624685158966</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.2666610681951838</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.2644811817816795</t>
+          <t>1.0926579408669672</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.4022037262110274</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6889916051857468</t>
+          <t>0.7016728052117287</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.3349846706665383</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.8525087885407361</t>
+          <t>2.5510944576434936e-117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.3983557206099277</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.8212568551029733</t>
+          <t>0.8781743969629474</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.2724255065808094</t>
+          <t>1.0435024828845867</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.5078432150177535</t>
+          <t>0.8860726159142833</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9443598775964936</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.2327506181875723</t>
+          <t>0.9594235401944964</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.0117613101950664</t>
+          <t>0.8985977501017395</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.479291478291266</t>
+          <t>0.9157968489441828</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.3129798258313485</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.5977525840886653</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.086290288623912</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0515047408414375</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.877978675834213</t>
+          <t>1.017257158740172</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.4812744445474149</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.247500271042001</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7718908679643519</t>
+          <t>0.9685668168344375</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2418943748652076</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.4925158984858742</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.9208204935703748</t>
+          <t>0.9175769850941986</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.8684042441878042</t>
+          <t>0.9055743008095121</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.9277844687940733</t>
+          <t>0.5948394017404792</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8528183383719892</t>
+          <t>1.0314015788809048</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.4389146514348141</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.3404186312142765</t>
+          <t>1.6780467218070498</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9003529635121694</t>
+          <t>0.39385588999384946</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.4096144941671054</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.3956680832394142</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.783477318970796</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.157615795328241</t>
+          <t>1.6682536365735814</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.4364190603670934</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.009124894146403</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.005578720067092</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.956449055163901</t>
+          <t>1.0292123952328271</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.823533711197741</t>
+          <t>1.0147414285982137</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.4828011765943074</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.559350706248484</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.0103817778578161</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-5.150137787677053e-06</t>
+          <t>0.8531997129191495</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.377600049587075</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.1034250726109462</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2313361060692252</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.9968955042744767</t>
+          <t>0.7922558671499544</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.7690366191623165</t>
+          <t>1.0206476471010553</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.6286631716062594</t>
+          <t>0.5462817721200537</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2423561993050924</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.7962342227057988</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.310108560859021</t>
+          <t>0.9342443694732196</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-6.612017846121874e-07</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.0052008911025592</t>
+          <t>0.7133663136408557</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.1432937234114249</t>
+          <t>0.6132486283721028</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.4725350526875172</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2806889818562581</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.716904289403746</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.0433482061170167</t>
+          <t>0.42012275853036396</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6946917364022154</t>
+          <t>0.6996307612387245</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.661719598449352</t>
+          <t>0.6732028983502474</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.241887463958978</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.5692964628917014</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.122026520181013</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.1154539153971115</t>
+          <t>0.7478964537310244</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.4493605772080436</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.7889189928224454</t>
+          <t>1.0314015788809048</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6089012563734881</t>
+          <t>0.8340036691205412</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.1076805598720654</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.3270785002142844</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.3825397748682515</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.004937627910948</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.7878812971560833</t>
+          <t>0.5390073477753035</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.894278333005829</t>
+          <t>1.2534932099633807</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.3257182035789157</t>
+          <t>1.2452065069479659</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.2462689999209857</t>
+          <t>1.2630117112913695</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1050991630366696</t>
+          <t>1.2445955451730697</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.6984807200716041</t>
+          <t>1.247253382277222</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.4176796131927176</t>
+          <t>1.26029930238019</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.5401531316418327</t>
+          <t>1.252817610635816</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.495355440772295</t>
+          <t>1.232617089835344</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.3486355545814916</t>
+          <t>1.2652936281064058</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.728727477041197</t>
+          <t>1.2585378284570652</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.439385152903136</t>
+          <t>1.2534932099633807</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CV RMSE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test RMSE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test R2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.3430818002618178</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.5058874582582438</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-3.6297416769317934</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2249359635710472</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.1563774703280538</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.6032218721071211</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.18832147579485334</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.28726568798348734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-0.649770913355864</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.2846459817459179</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.1722392725212733</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.45988796069980764</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.19559848431651577</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.3527292595646981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-2.494302366225491</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.23844937793949442</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.20889496712345884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0831966164931357</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.25901130654838334</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.16069556272032548</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.5268043994552618</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.2647363507060318</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.19214150485221124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.09194837788864063</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.15969411327975755</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.27423317345601034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.1263015823475493</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0.2733040995942138</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.19729591709593508</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.4283679988409841</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -1712,1144 +1712,1144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.027823053832185154</t>
+          <t>1.4635167456538625</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.390489713005536</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.4876589018341946</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.3438363425838773</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.3999265693913614</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9910925583988046</t>
+          <t>0.9974080554708422</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4432153914986827</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.8977732956585172</t>
+          <t>0.9600533829114255</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.3394362494854022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>0.8898090933985685</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9055743008095121</t>
+          <t>1.0303761370455788</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.2620360543466802</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.4109062438139404</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.2591495106164672</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.1867268901300179</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.3238689036694495</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0460156822041675</t>
+          <t>0.9945577840411985</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>0.9493942889864542</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9642892661606766</t>
+          <t>1.0461877844883958</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6402476429799735</t>
+          <t>0.6772034217904377</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.36081153481008693</t>
+          <t>0.7103060992535859</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.7090876625653042</t>
+          <t>0.6759812885098455</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4157678818363593</t>
+          <t>1.0713164497413175</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.0265563216490676</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.1040104288734298</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9787212902243141</t>
+          <t>0.9670756327817429</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.1099494601961766</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.8108694734176947</t>
+          <t>1.0598756628636181</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>0.8767026335112718</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.3062533427198844</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.3072864635364634</t>
+          <t>0.878984036584626</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.6560665448591783</t>
+          <t>0.7172017607747989</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.2247289514179727</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.6476694595820618</t>
+          <t>1.1779531509827734</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.716829725411082</t>
+          <t>0.6720530179543687</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8567838121808098</t>
+          <t>0.9514424354346858</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4123738551867433</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.0550855343295353</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9658046561741571</t>
+          <t>0.9283697326554403</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.432984119785246</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.0014769574332547</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.031346795839454</t>
+          <t>0.8818200625384804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7922558671499544</t>
+          <t>0.8572183228970829</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8365817274812315</t>
+          <t>0.9723590097737542</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.2973368862266028</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.7169360244224601</t>
+          <t>0.6664723694447048</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.2472726579404139</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>0.8696591710254324</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6913743664217691</t>
+          <t>0.7682109525454948</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.9175769850941986</t>
+          <t>0.9524368910925034</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.008068182699884506</t>
+          <t>1.0686929578133118</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.0288415193688678</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6857933332772248</t>
+          <t>0.9743949934383096</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.3602903354395437</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>0.9884515332760841</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.3416499038540195</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4127977344023606</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.2892713396022728</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.2841749285045552</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.2440584453391637</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.0662113555620465</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>0.9856088978244912</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.15942116900709313</t>
+          <t>1.0338996144102595</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.320317851441004</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0295622326314344</t>
+          <t>1.0425166570706281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.8075389710608691</t>
+          <t>1.0715238212075207</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.0938962345811092</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.8827098498046659</t>
+          <t>0.9896234853786723</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>0.9843455753985779</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.314270720220506</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.3886241136078468</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.6560665448591783</t>
+          <t>0.6347121143658825</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.4377472021038216</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.017257158740172</t>
+          <t>0.8896891779527181</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.0147414285982137</t>
+          <t>0.8741696093440083</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9959854262980627</t>
+          <t>0.9886421466708981</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.2918870256298192</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.1658527785222645</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.4309268425228225</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.9981983172111129</t>
+          <t>1.002403282165787</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.3598039915428423</t>
+          <t>0.694287065050986</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.0895703979427935</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7922558671499544</t>
+          <t>1.013556707559431</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.7052819956236434</t>
+          <t>0.66688481525388</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.2973362912209723</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.254471755511048</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.0921824767347488</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.8977732956585172</t>
+          <t>1.0192329519970684</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.0563510376383363</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7133663136408557</t>
+          <t>0.708343475896207</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.279002944484489</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.4440365871215448</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.043204318608332</t>
+          <t>1.0559921612335899</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.305805434588649</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.3485693493713384</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>0.8789065204496609</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6827036740057935</t>
+          <t>0.6993751153939769</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.6987756053130969</t>
+          <t>0.697375565225343</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.9950818028801223</t>
+          <t>1.052002726149027</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.3326975843139337</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.3015488980203145</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.031346795839454</t>
+          <t>0.9291712251127251</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7922558671499544</t>
+          <t>0.9921064978334471</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.1599920329994404</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.4449786946000742</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.0543544736598989</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4036636529289694</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.4948002670727476</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.2978568017195045</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.8021288139294143</t>
+          <t>1.0581521077818934</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.129665310269246</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>0.9616830644790184</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.008817156458477</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.8365817274812315</t>
+          <t>0.959280264076213</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0029377001772891154</t>
+          <t>1.5555756408835855</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.1750351931847973</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4232349214466353</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.5099591139076693</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.7944466994331378</t>
+          <t>1.1703800835545053</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.9175769850941986</t>
+          <t>0.979420435461023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.2788524731510336</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.6517578748683128</t>
+          <t>0.652058100556701</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.1013156205650603</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.099154747566189</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.3129279565902792</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.302354807862045</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8542796069684542</t>
+          <t>0.9390546014481771</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.8854021774739547</t>
+          <t>0.9826675694044837</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.0857293828399435</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>0.8408476622421901</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.357907842098001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.2896535481292801</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.4463797031795593</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.4038153759965724</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.9068624685158966</t>
+          <t>1.0449164439007816</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.2256170164050957</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.0926579408669672</t>
+          <t>1.5602713995850266</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.4102551841700475</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.7016728052117287</t>
+          <t>0.6700331317942982</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.283273111881357</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2.5510944576434936e-117</t>
+          <t>0.8973783445697165</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.3323931631288133</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.8781743969629474</t>
+          <t>0.6584569438504815</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0435024828845867</t>
+          <t>0.9896988108769307</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.8860726159142833</t>
+          <t>0.9787350143158662</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>0.9784371789590125</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9594235401944964</t>
+          <t>1.0708765926760648</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8985977501017395</t>
+          <t>1.0463497093852894</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.9157968489441828</t>
+          <t>1.4335074873583693</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.3514622682161104</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.2600088275775363</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.141545832860686</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.0920252312201484</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.017257158740172</t>
+          <t>0.9723942365663589</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.5144174731961257</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.2932774963773142</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.9685668168344375</t>
+          <t>0.8714564656210513</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.2924348294079522</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.464509835796477</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.9175769850941986</t>
+          <t>0.8481670495653333</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9055743008095121</t>
+          <t>0.9693679174528711</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.5948394017404792</t>
+          <t>1.0227629622711873</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0314015788809048</t>
+          <t>0.9119483088870197</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.4149372092187775</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.6780467218070498</t>
+          <t>1.1412521512167615</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.39385588999384946</t>
+          <t>0.9541451884247465</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.3400823061210048</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.0152807242653523</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.2983384513696876</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.6682536365735814</t>
+          <t>1.1610377399174183</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.304884697408653</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.0793526105268683</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.062318445973034</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0292123952328271</t>
+          <t>1.0364562024526691</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.0147414285982137</t>
+          <t>0.9669962361734008</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.427038309210971</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.3991696757937149</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.0912664722571819</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.8531997129191495</t>
+          <t>0.7006478226310904</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.3527520780398135</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.0139746439416797</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.286950278456743</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7922558671499544</t>
+          <t>1.0112466478781243</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.0206476471010553</t>
+          <t>1.0668491012610843</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.5462817721200537</t>
+          <t>1.060838109793039</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.2837828409432746</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.3081442847218199</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.9342443694732196</t>
+          <t>1.0195257736349603</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>0.8571802250623861</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.7133663136408557</t>
+          <t>0.6727848583267715</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.6132486283721028</t>
+          <t>0.9913327490941128</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.3526653957021324</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.3096156914207597</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>1.444215608062052</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.42012275853036396</t>
+          <t>0.9790910147529104</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6996307612387245</t>
+          <t>0.6919039594063179</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.6732028983502474</t>
+          <t>0.7963109530009405</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.292434179916576</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.4879562208680426</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.3943186311574323</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.7478964537310244</t>
+          <t>0.9851887387119405</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.4331727860244285</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0314015788809048</t>
+          <t>0.8654038540058195</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.8340036691205412</t>
+          <t>0.6625769590569632</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.015828222874795</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.174370727420225</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.1373748733949895</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>0.9986091313856136</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.5390073477753035</t>
+          <t>1.2704823481663965</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>0.8857498358013203</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2452065069479659</t>
+          <t>1.4434619569692586</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.2630117112913695</t>
+          <t>1.3508852242402156</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2445955451730697</t>
+          <t>1.338194710780627</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.247253382277222</t>
+          <t>0.8867991563327422</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.26029930238019</t>
+          <t>1.0355273662040574</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.252817610635816</t>
+          <t>1.3617517347493617</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.232617089835344</t>
+          <t>1.4951627155288634</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.2652936281064058</t>
+          <t>1.3569548313804916</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.2585378284570652</t>
+          <t>1.3313545235029949</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.2534932099633807</t>
+          <t>1.4331462365327639</t>
         </is>
       </c>
     </row>
@@ -2892,170 +2892,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.3430818002618178</t>
+          <t>0.04307235823659428</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5058874582582438</t>
+          <t>0.11377241802719405</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.6297416769317934</t>
+          <t>0.7658344995914905</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.2249359635710472</t>
+          <t>0.05281276174186957</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1563774703280538</t>
+          <t>0.06415006174159113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6032218721071211</t>
+          <t>0.9332281337810088</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.18832147579485334</t>
+          <t>0.05597392991551912</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.28726568798348734</t>
+          <t>0.06834332538213823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.649770913355864</t>
+          <t>0.9066211879880028</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.2846459817459179</t>
+          <t>0.05222811052725694</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1722392725212733</t>
+          <t>0.049324764648248046</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.45988796069980764</t>
+          <t>0.9557055272655879</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.19559848431651577</t>
+          <t>0.046246114978251845</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.3527292595646981</t>
+          <t>0.10266035696543888</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.494302366225491</t>
+          <t>0.7040059037426202</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.23844937793949442</t>
+          <t>0.05934324964762953</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.20889496712345884</t>
+          <t>0.051602231167986616</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0831966164931357</t>
+          <t>0.9440555235449287</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.25901130654838334</t>
+          <t>0.05062855385671748</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.16069556272032548</t>
+          <t>0.09052371504256959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5268043994552618</t>
+          <t>0.8498388220953421</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.2647363507060318</t>
+          <t>0.05401152442090912</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.19214150485221124</t>
+          <t>0.03557657094391303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.09194837788864063</t>
+          <t>0.9688687660336519</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.15969411327975755</t>
+          <t>0.06801524534533997</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.27423317345601034</t>
+          <t>0.04302429430078885</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.1263015823475493</t>
+          <t>0.9722768722203178</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.2733040995942138</t>
+          <t>0.06555518555974076</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.19729591709593508</t>
+          <t>0.06798847987520865</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.4283679988409841</t>
+          <t>0.9321185673129772</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-predicts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPR-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GPR-values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GPR-predicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GPR-10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -497,349 +497,349 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.513671875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.72265625</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.68359375</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.103515625</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.083984375</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.72265625</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.26953125</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3671875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.328125</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.07421875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.80078125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91796875</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -849,455 +849,455 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1.484375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.103515625</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.703125</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.99609375</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.376953125</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.3671875</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.91796875</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.025390625</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1.083984375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1.435546875</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.0546875</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>0.849609375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.07421875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.15234375</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.908203125</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.947265625</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.99609375</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.201171875</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1.50390625</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.947265625</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1.103515625</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>0.986328125</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1.015625</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.30859375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>0.64453125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>1.2109375</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.34765625</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.78125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>1.09375</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1307,339 +1307,339 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.87890625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.34765625</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.09375</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>1.474609375</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.09375</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.064453125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.19140625</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>1.328125</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.455078125</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.869140625</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.435546875</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.947265625</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.791015625</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.80078125</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.025390625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>1.50390625</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.07421875</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.693359375</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.78125</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.513671875</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1.455078125</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.64453125</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.3671875</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.484375</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.07421875</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1712,1149 +1712,1149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4635167456538625</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.390489713005536</t>
+          <t>0.5412015876935591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4876589018341946</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3438363425838773</t>
+          <t>0.978319961007827</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.3999265693913614</t>
+          <t>0.5162575695485035</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9974080554708422</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4432153914986827</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9600533829114255</t>
+          <t>1.2596956419088627</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.3394362494854022</t>
+          <t>0.7044219901690032</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8898090933985685</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.0303761370455788</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2620360543466802</t>
+          <t>0.9981961247998471</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4109062438139404</t>
+          <t>1.0048545204795205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2591495106164672</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.1867268901300179</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.3238689036694495</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9945577840411985</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9493942889864542</t>
+          <t>1.2596956419088627</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0461877844883958</t>
+          <t>1.0131161469981618</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6772034217904377</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.7103060992535859</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.6759812885098455</t>
+          <t>1.55997071241117</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0713164497413175</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0265563216490676</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.1040104288734298</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9670756327817429</t>
+          <t>1.2455905227485857</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1099494601961766</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0598756628636181</t>
+          <t>0.867014097180558</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8767026335112718</t>
+          <t>4.793128130648839e-06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.3062533427198844</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.878984036584626</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7172017607747989</t>
+          <t>0.9981961247998471</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2247289514179727</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1779531509827734</t>
+          <t>1.0048545204795205</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.6720530179543687</t>
+          <t>0.6425811772873261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9514424354346858</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4123738551867433</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.0550855343295353</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9283697326554403</t>
+          <t>0.23194124266844557</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.432984119785246</t>
+          <t>1.2487512487512487</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0014769574332547</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8818200625384804</t>
+          <t>1.2536268042720735</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8572183228970829</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.9723590097737542</t>
+          <t>1.0536338661338662</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.2973368862266028</t>
+          <t>0.19484324232216138</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6664723694447048</t>
+          <t>1.2455905227485857</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2472726579404139</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.8696591710254324</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.7682109525454948</t>
+          <t>1.0608443039799516</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.9524368910925034</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0686929578133118</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0288415193688678</t>
+          <t>0.9919448084011238</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9743949934383096</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.3602903354395437</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.9884515332760841</t>
+          <t>9.504030750443309e-55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.3416499038540195</t>
+          <t>1.0048545204795205</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.4127977344023606</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.2892713396022728</t>
+          <t>1.2596956419088627</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2841749285045552</t>
+          <t>1.0607181928784135</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2440584453391637</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.0662113555620465</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9856088978244912</t>
+          <t>0.4606212458529232</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0338996144102595</t>
+          <t>0.9827453348884205</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.320317851441004</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0425166570706281</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0715238212075207</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0938962345811092</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.9896234853786723</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9843455753985779</t>
+          <t>0.7830917126121805</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.314270720220506</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.3886241136078468</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.6347121143658825</t>
+          <t>1.0473563736435239</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4377472021038216</t>
+          <t>0.9827453348884205</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8896891779527181</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8741696093440083</t>
+          <t>0.0002515525048529191</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9886421466708981</t>
+          <t>1.2455905227485857</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.2918870256298192</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.1658527785222645</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.4309268425228225</t>
+          <t>0.9432902753086003</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.002403282165787</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.694287065050986</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.0895703979427935</t>
+          <t>0.9012070779494366</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.013556707559431</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.66688481525388</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.2973362912209723</t>
+          <t>0.5884447667202017</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.254471755511048</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0921824767347488</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.0192329519970684</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.0563510376383363</t>
+          <t>1.0608443039799516</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.708343475896207</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.279002944484489</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.4440365871215448</t>
+          <t>0.9747288955718432</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0559921612335899</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.305805434588649</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.3485693493713384</t>
+          <t>1.761440751179563e-67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8789065204496609</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6993751153939769</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.697375565225343</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.052002726149027</t>
+          <t>0.07148224905496632</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.3326975843139337</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.3015488980203145</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9291712251127251</t>
+          <t>1.545929342240541</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9921064978334471</t>
+          <t>1.2564406144103657</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.1599920329994404</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.4449786946000742</t>
+          <t>6.748451596448962e-12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.0543544736598989</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.4036636529289694</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.4948002670727476</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2978568017195045</t>
+          <t>0.09241934734657482</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.0581521077818934</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.129665310269246</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9616830644790184</t>
+          <t>0.9981961247998471</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.008817156458477</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.959280264076213</t>
+          <t>1.356065809190809</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.5555756408835855</t>
+          <t>0.5162575695485035</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.1750351931847973</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.4232349214466353</t>
+          <t>1.1203253874031418</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.5099591139076693</t>
+          <t>0.867014097180558</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1703800835545053</t>
+          <t>1.226859106070819</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.979420435461023</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2788524731510336</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.652058100556701</t>
+          <t>1.2536268042720735</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1013156205650603</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.099154747566189</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.3129279565902792</t>
+          <t>0.00048265934261909165</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.302354807862045</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.9390546014481771</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.9826675694044837</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.0857293828399435</t>
+          <t>1.0048968194366872</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.8408476622421901</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.357907842098001</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2896535481292801</t>
+          <t>1.2536268042720735</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.4463797031795593</t>
+          <t>1.2564406144103657</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.4038153759965724</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0449164439007816</t>
+          <t>1.0953500488777725</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.2256170164050957</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.5602713995850266</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.4102551841700475</t>
+          <t>1.2596956419088627</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6700331317942982</t>
+          <t>1.0608443039799516</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.283273111881357</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.8973783445697165</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.3323931631288133</t>
+          <t>1.2124566509890755</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6584569438504815</t>
+          <t>0.9827453348884205</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9896988108769307</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.9787350143158662</t>
+          <t>1.2154532327608063</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9784371789590125</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0708765926760648</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.0463497093852894</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.4335074873583693</t>
+          <t>1.226859106070819</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.3514622682161104</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2600088275775363</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.141545832860686</t>
+          <t>1.0159406006460308</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0920252312201484</t>
+          <t>1.2564406144103657</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9723942365663589</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.5144174731961257</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2932774963773142</t>
+          <t>0.9802726954609255</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8714564656210513</t>
+          <t>1.2217801526381038</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2924348294079522</t>
+          <t>1.2596956419088627</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.464509835796477</t>
+          <t>1.226859106070819</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.8481670495653333</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9693679174528711</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.0227629622711873</t>
+          <t>1.0092714487998469</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9119483088870197</t>
+          <t>1.2564406144103657</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.4149372092187775</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1412521512167615</t>
+          <t>0.30820185803352723</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9541451884247465</t>
+          <t>1.2455905227485857</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.3400823061210048</t>
+          <t>1.1203253874031418</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.0152807242653523</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.2983384513696876</t>
+          <t>0.6448071468517813</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.1610377399174183</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.304884697408653</t>
+          <t>1.2688821613435408</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0793526105268683</t>
+          <t>0.6802191706818159</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.062318445973034</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0364562024526691</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9669962361734008</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.427038309210971</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.3991696757937149</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.0912664722571819</t>
+          <t>1.34630994005994</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.7006478226310904</t>
+          <t>0.4665024088569613</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.3527520780398135</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.0139746439416797</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.286950278456743</t>
+          <t>1.0463858578280956</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0112466478781243</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.0668491012610843</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.060838109793039</t>
+          <t>1.0953500488777725</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2837828409432746</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.3081442847218199</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.0195257736349603</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8571802250623861</t>
+          <t>1.226859106070819</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.6727848583267715</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9913327490941128</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.3526653957021324</t>
+          <t>1.0460821093646329</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3096156914207597</t>
+          <t>1.2564406144103657</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.444215608062052</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9790910147529104</t>
+          <t>0.01794919394970031</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6919039594063179</t>
+          <t>0.9802726954609255</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.7963109530009405</t>
+          <t>1.1203253874031418</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.292434179916576</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.4879562208680426</t>
+          <t>-0.9965344565445784</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.3943186311574323</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9851887387119405</t>
+          <t>1.34630994005994</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.4331727860244285</t>
+          <t>1.0431153252381757</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8654038540058195</t>
+          <t>0.9827453348884205</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6625769590569632</t>
+          <t>1.2522241338745133</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.015828222874795</t>
+          <t>1.196068173846547</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.174370727420225</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.1373748733949895</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.9986091313856136</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2704823481663965</t>
+          <t>1.1691615440396976</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8857498358013203</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.4434619569692586</t>
+          <t>1.0317290868188564</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.3508852242402156</t>
+          <t>1.034357109139048</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.338194710780627</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8867991563327422</t>
+          <t>0.978319961007827</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0355273662040574</t>
+          <t>0.8967746468988768</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.3617517347493617</t>
+          <t>1.2455905227485857</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.4951627155288634</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.3569548313804916</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.3313545235029949</t>
+          <t>1.0608443039799516</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.4331462365327639</t>
+          <t>1.2227084226126976</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2892,174 +2892,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04307235823659428</t>
+          <t>0.8553502574624495</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.11377241802719405</t>
+          <t>0.9009797540080465</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7658344995914905</t>
+          <t>-11.267530395327555</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.05281276174186957</t>
+          <t>0.43262647666073606</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.06415006174159113</t>
+          <t>0.30618483007181024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9332281337810088</t>
+          <t>-0.7097114361224217</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.05597392991551912</t>
+          <t>0.7893733751251015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.06834332538213823</t>
+          <t>0.8706256729973605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9066211879880028</t>
+          <t>-16.442274658407836</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.05222811052725694</t>
+          <t>0.9094464144444407</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.049324764648248046</t>
+          <t>0.792316136104113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9557055272655879</t>
+          <t>-12.10879382607062</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.046246114978251845</t>
+          <t>0.5981896606101615</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.10266035696543888</t>
+          <t>0.74121768499499</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7040059037426202</t>
+          <t>-9.191799886242768</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.05934324964762953</t>
+          <t>0.8382576024040752</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.051602231167986616</t>
+          <t>0.8743206154395264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9440555235449287</t>
+          <t>-10.351421035493761</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.05062855385671748</t>
+          <t>0.781229223458276</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.09052371504256959</t>
+          <t>0.9421240179617482</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8498388220953421</t>
+          <t>-12.60412978076397</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.05401152442090912</t>
+          <t>0.8431100283731201</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.03557657094391303</t>
+          <t>0.9256378638100708</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9688687660336519</t>
+          <t>-20.340695335755445</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.06801524534533997</t>
+          <t>0.5717632064766006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.04302429430078885</t>
+          <t>0.8005448319112952</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9722768722203178</t>
+          <t>-8.36659712833454</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.06555518555974076</t>
+          <t>0.778912946852633</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.06798847987520865</t>
+          <t>0.8380149990584426</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9321185673129772</t>
+          <t>-10.4140052115477</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -452,14 +452,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
     </row>
@@ -473,133 +473,133 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.986328125</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>0.869140625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.171875</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.220703125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.6015625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.513671875</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.15234375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.4093410483133706</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.4742408147963033</t>
+          <t>0.6535686615068139</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.4093410483133706</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0044975693955798</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9047032159873538</t>
+          <t>1.0747307173340062</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>1.0046025854772407</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>1.1029221432479375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.3443009794253731</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>1.0403260623536363</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.4742408147963033</t>
+          <t>0.7207782988919155</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>1.240468022191243</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.613536622443777</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.9077050953242166</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.4579325143632693</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.9859652627700228</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.47530943031825623</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.3160554427046579</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1385313451659727</t>
+          <t>0.7067855874664106</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.2786575462268814</t>
+          <t>1.0043923672153598</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.4494705772113932</t>
+          <t>1.628384493006819</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9047032159873538</t>
+          <t>0.8896894977150676</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.4093410483133777</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.37211577830470477</t>
+          <t>0.2998983035097611</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.529582037455366</t>
+          <t>0.381631479634601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.4559901621478346</t>
+          <t>-1.013840144578686</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.044921875</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>0.78125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.6015625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4093410483133706</t>
+          <t>1.429070400749822</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.6535686615068139</t>
+          <t>1.0272177073635262</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.4093410483133706</t>
+          <t>1.4095141680767256</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.0044975693955798</t>
+          <t>1.1117642111194783</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0747307173340062</t>
+          <t>0.9935995993478741</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0046025854772407</t>
+          <t>1.1651649487737643</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1029221432479375</t>
+          <t>0.6000471883618133</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.3443009794253731</t>
+          <t>1.0149690343042579</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.0403260623536363</t>
+          <t>1.4095141680767256</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.7207782988919155</t>
+          <t>0.7754213646985022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.240468022191243</t>
+          <t>1.4095141680767256</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.613536622443777</t>
+          <t>0.9935995993478741</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.9077050953242166</t>
+          <t>1.4095141680767256</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.4579325143632693</t>
+          <t>1.4562890081945739</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9859652627700228</t>
+          <t>0.7113430634758586</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.47530943031825623</t>
+          <t>1.464511056335752</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.3160554427046579</t>
+          <t>1.4923243260556092</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.7067855874664106</t>
+          <t>1.4818789786545494</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.0043923672153598</t>
+          <t>0.9410490595336327</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.628384493006819</t>
+          <t>1.2530319231944773</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.8896894977150676</t>
+          <t>0.9415915803442303</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.4093410483133777</t>
+          <t>1.1057268274838528</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.2998983035097611</t>
+          <t>0.1700379087881687</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.381631479634601</t>
+          <t>0.19923918182131392</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.013840144578686</t>
+          <t>0.383257134184388</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/GPR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.78125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>1.34765625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.429070400749822</t>
+          <t>0.8721051316228028</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.0272177073635262</t>
+          <t>0.9136659256364319</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.4095141680767256</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.1117642111194783</t>
+          <t>0.3937280223162097</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9935995993478741</t>
+          <t>1.2667545635124726</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1651649487737643</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.6000471883618133</t>
+          <t>0.6902409416085462</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.0149690343042579</t>
+          <t>0.7260781225583638</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.4095141680767256</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.7754213646985022</t>
+          <t>1.2398811328277475</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.4095141680767256</t>
+          <t>1.0591243625617068</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.9935995993478741</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.4095141680767256</t>
+          <t>0.9136659256364319</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.4562890081945739</t>
+          <t>1.2398811328277475</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.7113430634758586</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.464511056335752</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.4923243260556092</t>
+          <t>0.8721051316228028</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.4818789786545494</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9410490595336327</t>
+          <t>0.9136659256364319</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.2530319231944773</t>
+          <t>0.11644480177489828</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9415915803442303</t>
+          <t>1.1799666364624954</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.1057268274838528</t>
+          <t>1.2398811328277475</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.1700379087881687</t>
+          <t>0.42586783961821056</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.19923918182131392</t>
+          <t>0.36072112165012504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.383257134184388</t>
+          <t>-0.9580026854145247</t>
         </is>
       </c>
     </row>
